--- a/test/模板_龙泉编码.xlsx
+++ b/test/模板_龙泉编码.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>总卷数</t>
   </si>
@@ -53,31 +53,47 @@
   </si>
   <si>
     <t>龙泉编码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>作译者</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>龙泉经名</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>佛說七佛經2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>LQ0004</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>忽略</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,14 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -261,8 +269,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,271 +568,272 @@
   </borders>
   <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="117">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
@@ -1229,21 +1251,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="19">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1256,82 +1280,96 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="19">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>22</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="19">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="19">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="19">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" ht="19">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1350,7 +1388,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/test/模板_龙泉编码.xlsx
+++ b/test/模板_龙泉编码.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>总卷数</t>
   </si>
@@ -90,27 +90,6 @@
   </si>
   <si>
     <t>备注2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3794</t>
-  </si>
-  <si>
-    <t>徑山志</t>
-  </si>
-  <si>
-    <r>
-      <t>明 李燁然刪定、徐文龍、陳懋德訂、奎光輯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𣜷</t>
-    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -122,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,12 +276,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="27">
@@ -594,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -856,15 +829,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="119">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="18"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="20"/>
@@ -940,6 +914,7 @@
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
@@ -958,6 +933,7 @@
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="好 2" xfId="67"/>
     <cellStyle name="汇总 2" xfId="68"/>
     <cellStyle name="计算 2" xfId="3"/>
@@ -1283,7 +1259,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1341,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1397,20 +1373,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
